--- a/data/xls/bp-2016-oil-reserves-us.xlsx
+++ b/data/xls/bp-2016-oil-reserves-us.xlsx
@@ -12,38 +12,29 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bp-2016-oil-reserves-us" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Thousand million barrels</t>
+    <t>?</t>
   </si>
   <si>
-    <t>of total</t>
+    <t>YEAR</t>
   </si>
   <si>
-    <t>US</t>
+    <t>THOUSAND MILLION BARRELS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[&lt;-0.0005]\-0.0%;[&gt;0.0005]0.0%;#\♦"/>
-    <numFmt numFmtId="167" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,21 +43,315 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -74,45 +359,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[&gt;0.0005]0.0%;[=0]\-;#\♦"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[&lt;-0.0005]\-0.0%;[=0]\-;#\♦"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[&gt;0.0005]0.0%;[=0]\-;#\♦"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[&lt;-0.0005]\-0.0%;[=0]\-;#\♦"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -422,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -430,270 +877,316 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="36" width="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2">
+        <v>36.5</v>
+      </c>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1980</v>
-      </c>
-      <c r="C1">
-        <v>1981</v>
-      </c>
-      <c r="D1">
-        <v>1982</v>
-      </c>
-      <c r="E1">
-        <v>1983</v>
-      </c>
-      <c r="F1">
-        <v>1984</v>
-      </c>
-      <c r="G1">
-        <v>1985</v>
-      </c>
-      <c r="H1">
-        <v>1986</v>
-      </c>
-      <c r="I1">
-        <v>1987</v>
-      </c>
-      <c r="J1">
-        <v>1988</v>
-      </c>
-      <c r="K1">
-        <v>1989</v>
-      </c>
-      <c r="L1">
-        <v>1990</v>
-      </c>
-      <c r="M1">
-        <v>1991</v>
-      </c>
-      <c r="N1">
-        <v>1992</v>
-      </c>
-      <c r="O1">
-        <v>1993</v>
-      </c>
-      <c r="P1">
-        <v>1994</v>
-      </c>
-      <c r="Q1">
-        <v>1995</v>
-      </c>
-      <c r="R1">
-        <v>1996</v>
-      </c>
-      <c r="S1">
-        <v>1997</v>
-      </c>
-      <c r="T1">
-        <v>1998</v>
-      </c>
-      <c r="U1">
-        <v>1999</v>
-      </c>
-      <c r="V1">
-        <v>2000</v>
-      </c>
-      <c r="W1">
-        <v>2001</v>
-      </c>
-      <c r="X1">
-        <v>2002</v>
-      </c>
-      <c r="Y1">
-        <v>2003</v>
-      </c>
-      <c r="Z1">
-        <v>2004</v>
-      </c>
-      <c r="AA1">
-        <v>2005</v>
-      </c>
-      <c r="AB1">
-        <v>2006</v>
-      </c>
-      <c r="AC1">
-        <v>2007</v>
-      </c>
-      <c r="AD1">
-        <v>2008</v>
-      </c>
-      <c r="AE1">
-        <v>2009</v>
-      </c>
-      <c r="AF1">
-        <v>2010</v>
-      </c>
-      <c r="AG1">
-        <v>2011</v>
-      </c>
-      <c r="AH1">
-        <v>2012</v>
-      </c>
-      <c r="AI1">
-        <v>2013</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="AL1" s="3">
-        <v>2014</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1"/>
-    </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <v>36.533000469207764</v>
-      </c>
-      <c r="C2" s="6">
-        <v>36.494000434875488</v>
-      </c>
-      <c r="D2" s="6">
-        <v>35.078999996185303</v>
-      </c>
-      <c r="E2" s="6">
-        <v>35.636000633239746</v>
-      </c>
-      <c r="F2" s="6">
-        <v>36.088999271392822</v>
-      </c>
-      <c r="G2" s="6">
-        <v>36.360000133514404</v>
-      </c>
-      <c r="H2" s="6">
-        <v>35.053999900817871</v>
-      </c>
-      <c r="I2" s="6">
-        <v>35.403000831604004</v>
-      </c>
-      <c r="J2" s="6">
-        <v>35.063000679016113</v>
-      </c>
-      <c r="K2" s="6">
-        <v>34.269999504089355</v>
-      </c>
-      <c r="L2" s="6">
-        <v>33.839999675750732</v>
-      </c>
-      <c r="M2" s="6">
-        <v>32.145999431610107</v>
-      </c>
-      <c r="N2" s="6">
-        <v>31.196001052856445</v>
-      </c>
-      <c r="O2" s="6">
-        <v>30.179000854492188</v>
-      </c>
-      <c r="P2" s="6">
-        <v>29.62700080871582</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>29.75</v>
-      </c>
-      <c r="R2" s="6">
-        <v>29.840000152587891</v>
-      </c>
-      <c r="S2" s="6">
-        <v>30.518999576568604</v>
-      </c>
-      <c r="T2" s="6">
-        <v>28.558000564575195</v>
-      </c>
-      <c r="U2" s="6">
-        <v>29.670999526977539</v>
-      </c>
-      <c r="V2" s="6">
-        <v>30.390000343322754</v>
-      </c>
-      <c r="W2" s="6">
-        <v>30.438999176025391</v>
-      </c>
-      <c r="X2" s="6">
-        <v>30.671000003814697</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>29.350000858306885</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>29.299000263214111</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>29.921999931335449</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>29.444000244140625</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>30.459999084472656</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>28.395999908447266</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>30.87199878692627</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>34.989999771118164</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>39.77500057220459</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>44.179999351501465</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>48.462998390197754</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>54.961997985839844</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>54.961997985839844</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>3.2376505434513092E-2</v>
-      </c>
-      <c r="AN2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AL2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>